--- a/data/trans_dic/P31_4_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P31_4_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que realiza un entrenamiento físico deportivo &lt;= 2 días a la semana respecto a las últimas 2 semanas</t>
+          <t>Población que realiza un entrenamiento físico deportivo &lt;= 2 días a la semana respecto a las últimas 2 semanas (tasa de respuesta: 99,05%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>82,08%</t>
+          <t>93,04%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>87,5%</t>
+          <t>86,95%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>71,02%</t>
+          <t>76,62%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>94,77%</t>
+          <t>64,91%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>96,43%</t>
+          <t>92,09%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>92,5%</t>
+          <t>94,58%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>88,72%</t>
+          <t>90,93%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>91,89%</t>
+          <t>95,54%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>80,67%</t>
+          <t>92,51%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>90,93%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>83,58%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>80,82%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>69,67; 91,66</t>
+          <t>78,47; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>76,51; 94,53</t>
+          <t>67,78; 96,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>57,54; 81,48</t>
+          <t>58,56; 90,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>87,85; 98,01</t>
+          <t>44,37; 81,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>89,52; 99,08</t>
+          <t>82,32; 97,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>85,09; 97,32</t>
+          <t>83,41; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>81,55; 93,33</t>
+          <t>78,9; 97,62</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>85,27; 95,88</t>
+          <t>84,5; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>71,7; 87,7</t>
+          <t>85,37; 97,27</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>81,42; 96,65</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>72,19; 91,2</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>66,98; 89,7</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>90,81%</t>
+          <t>96,07%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>90,99%</t>
+          <t>89,75%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>89,13%</t>
+          <t>93,12%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>96,93%</t>
+          <t>95,67%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>97,69%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>98,32%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
           <t>100,0%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>94,01%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>94,29%</t>
+          <t>91,8%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>94,31%</t>
+          <t>98,01%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>93,74%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>96,22%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>94,18%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>83,58; 95,87</t>
+          <t>86,44; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>82,99; 95,85</t>
+          <t>76,57; 96,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>80,17; 95,47</t>
+          <t>81,73; 98,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>92,19; 99,08</t>
+          <t>85,63; 98,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>91,88; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>97,87; 100</t>
+          <t>92,11; 100,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>89,56; 96,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>90,13; 97,17</t>
+          <t>73,98; 100,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>88,64; 97,27</t>
+          <t>93,12; 100,0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>87,15; 97,56</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>90,17; 98,98</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>85,8; 98,35</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>89,41%</t>
+          <t>90,21%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>90,9%</t>
+          <t>91,23%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>88,95%</t>
+          <t>84,85%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>95,36%</t>
+          <t>87,24%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>95,21%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>100,0%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>97,9%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>92,5%</t>
+          <t>96,8%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>95,64%</t>
+          <t>96,26%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>93,5%</t>
+          <t>93,3%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>96,54%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>91,91%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>92,29%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>81,39; 94,53</t>
+          <t>80,65; 96,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>83,38; 95,59</t>
+          <t>80,96; 96,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>80,9; 94,22</t>
+          <t>73,45; 92,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>89,41; 98,08</t>
+          <t>74,04; 94,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>98,68; 100</t>
+          <t>87,59; 98,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>93,74; 99,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>88,56; 95,53</t>
+          <t>90,67; 99,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>92,2; 97,7</t>
+          <t>90,45; 99,05</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>89,59; 96,24</t>
+          <t>87,59; 96,44</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>91,91; 98,66</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>87,14; 95,83</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>85,45; 96,05</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>90,54%</t>
+          <t>91,27%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>94,71%</t>
+          <t>93,5%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>94,08%</t>
+          <t>91,99%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>95,21%</t>
+          <t>94,59%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>96,56%</t>
+          <t>97,96%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
+          <t>97,78%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
           <t>97,01%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>93,11%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>95,72%</t>
+          <t>98,1%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>95,65%</t>
+          <t>94,87%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>95,77%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>94,62%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>96,36%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>84,17; 94,58</t>
+          <t>83,18; 96,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>89,28; 97,53</t>
+          <t>86,57; 97,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>88,93; 97,18</t>
+          <t>84,28; 97,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>85,67; 98,2</t>
+          <t>87,69; 98,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>91,13; 98,78</t>
+          <t>92,9; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>92,61; 99,27</t>
+          <t>92,52; 100,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>88,2; 95,76</t>
+          <t>91,88; 99,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>92,28; 97,8</t>
+          <t>92,37; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>92,77; 97,76</t>
+          <t>90,16; 97,58</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>91,66; 98,19</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>90,62; 97,43</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>92,74; 98,64</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>95,19%</t>
+          <t>93,09%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>91,78%</t>
+          <t>87,88%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>96,95%</t>
+          <t>97,42%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>99,14%</t>
+          <t>90,87%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>98,12%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>100,0%</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>100,0%</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>97,07%</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>95,57%</t>
+          <t>98,46%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>98,42%</t>
+          <t>95,22%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>92,63%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>98,51%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>94,3%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>89,95; 98,28</t>
+          <t>85,04; 97,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>74,88; 97,46</t>
+          <t>65,32; 97,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>92,0; 99,2</t>
+          <t>91,79; 100,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>95,02; 100,0</t>
+          <t>72,1; 98,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>98,0; 100</t>
+          <t>91,38; 100,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>98,17; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>94,17; 98,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>86,79; 98,69</t>
+          <t>93,41; 100,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>95,79; 99,58</t>
+          <t>90,27; 98,27</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>74,53; 98,3</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>94,73; 100,0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>82,54; 98,61</t>
         </is>
       </c>
     </row>
@@ -1187,12 +1362,12 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>98,72%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>98,64%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1202,12 +1377,12 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>99,04%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>99,08%</t>
+          <t>97,28%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1217,12 +1392,27 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>98,9%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>98,91%</t>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>98,54%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>97,61; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>93,56; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>92,35; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>97,87; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>94,87; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>95,48; 100,0</t>
+          <t>88,55; 100,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>98,86; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>96,41; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>96,42; 100,0</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>91,76; 100,0</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>91,19%</t>
+          <t>93,59%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>92,15%</t>
+          <t>91,21%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>88,85%</t>
+          <t>90,24%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>96,7%</t>
+          <t>89,95%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>98,22%</t>
+          <t>97,11%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>97,71%</t>
+          <t>98,13%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>94,09%</t>
+          <t>97,26%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>95,29%</t>
+          <t>96,91%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>93,35%</t>
+          <t>95,49%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>94,78%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>93,82%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>93,46%</t>
         </is>
       </c>
     </row>
@@ -1345,64 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>88,11; 93,22</t>
+          <t>90,46; 95,86</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>88,71; 94,32</t>
+          <t>86,16; 94,39</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>85,32; 92,01</t>
+          <t>85,01; 93,39</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>94,68; 97,92</t>
+          <t>85,22; 93,25</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>96,76; 99,12</t>
+          <t>94,66; 98,38</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>96,09; 98,69</t>
+          <t>96,19; 99,29</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>92,44; 95,42</t>
+          <t>94,97; 98,68</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>93,68; 96,49</t>
+          <t>93,1; 98,47</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>91,47; 94,89</t>
+          <t>93,8; 96,78</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>92,46; 96,5</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>91,54; 95,59</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>90,48; 95,52</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que realiza un entrenamiento físico deportivo &lt;= 2 días a la semana respecto a las últimas 2 semanas (tasa de respuesta: 99,05%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>96296</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>91922</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>97740</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>84197</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>123407</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>108733</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>109655</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>134047</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>219703</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>200655</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>207396</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>218244</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>81217; 103496</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>71656; 102130</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>74695; 115147</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>57562; 105281</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>110313; 131290</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>95887; 114960</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>95142; 117721</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>118561; 140303</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>202753; 231008</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>179682; 213291</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>179141; 226305</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>180871; 242214</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>162110</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>128698</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>143657</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>217830</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>165106</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>122566</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>126312</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>131431</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>327215</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>251264</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>269969</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>349261</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>145855; 168742</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>109801; 138257</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>126092; 151841</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>194975; 225394</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>114832; 124663</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>105919; 143169</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>310889; 333847</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>233623; 261520</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>253008; 277725</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>318205; 364740</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>151.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>146193</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>120072</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>116786</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>150477</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>249210</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>201548</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>192124</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>210861</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>395403</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>321620</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>308910</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>361337</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>130694; 156627</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>106550; 127159</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>101100; 127460</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>127703; 163221</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>229273; 257287</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>179945; 196534</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>198143; 216965</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>371210; 408714</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>306201; 328701</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>292884; 322075</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>334589; 376081</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>171.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>171.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>170390</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>149044</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>143702</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>188749</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>213910</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>175147</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>167296</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>200215</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>384299</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>324190</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>310998</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>388964</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>155287; 179666</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>137987; 155349</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>131654; 151606</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>174988; 196788</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>202864; 218371</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>165729; 179130</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>158459; 170880</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>188521; 204091</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>365195; 395257</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>310290; 332414</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>297841; 320218</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>374346; 398169</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>144012</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>114279</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>120013</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>140536</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>111367</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>83826</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>90598</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>125297</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>255380</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>198106</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>210611</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>265832</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>131568; 150688</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>84939; 126277</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>113080; 123193</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>111506; 151580</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>103707; 113496</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>118864; 127251</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>242100; 263549</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>159395; 210244</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>202525; 213791</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>232690; 277983</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>109317</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>82805</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>90133</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>134374</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>137602</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>94053</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>110607</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>202572</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>246918</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>176858</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>200740</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>336946</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>85609; 96682</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>164695; 179487</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>287.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>283.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>283.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>278.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>386.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>373.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>386.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>366.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>673.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>656.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>669.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>644.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>828317</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>686819</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>712032</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>916162</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>1000601</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>785873</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>796592</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1004423</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1828917</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>1472693</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>1508625</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>1920584</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>800572; 848359</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>648760; 710722</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>670718; 736869</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>867971; 949764</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>975310; 1013651</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>770272; 795115</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>777864; 808220</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>964927; 1020634</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1796633; 1853618</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1436585; 1499457</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>1472068; 1537143</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>1859207; 1962752</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>